--- a/INT/results/final_results.xlsx
+++ b/INT/results/final_results.xlsx
@@ -316,34 +316,6 @@
       </nvPicPr>
       <blipFill>
         <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId7"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:fillRect/>
-        </a:stretch>
-      </blipFill>
-      <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </spPr>
-    </pic>
-    <clientData/>
-  </oneCellAnchor>
-  <oneCellAnchor>
-    <from>
-      <col>70</col>
-      <colOff>0</colOff>
-      <row>0</row>
-      <rowOff>0</rowOff>
-    </from>
-    <ext cx="5715000" cy="3810000"/>
-    <pic>
-      <nvPicPr>
-        <cNvPr id="8" name="Image 8" descr="Picture"/>
-        <cNvPicPr/>
-      </nvPicPr>
-      <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId8"/>
         <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
@@ -846,7 +818,7 @@
         <v>0.98</v>
       </c>
       <c r="O5" t="n">
-        <v>-29000000000</v>
+        <v>26640892.03</v>
       </c>
     </row>
     <row r="6">
@@ -936,7 +908,7 @@
         <v>0.91</v>
       </c>
       <c r="O7" t="n">
-        <v>-27000000000</v>
+        <v>19597053.53</v>
       </c>
     </row>
     <row r="8">
@@ -1026,7 +998,7 @@
         <v>249.57</v>
       </c>
       <c r="O9" t="n">
-        <v>-21418000000000</v>
+        <v>32178878.78</v>
       </c>
     </row>
     <row r="10">
@@ -1116,7 +1088,7 @@
         <v>76.04000000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>-6479000000000</v>
+        <v>30161857.6</v>
       </c>
     </row>
     <row r="12">
@@ -1206,7 +1178,7 @@
         <v>75.79000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>-6467000000000</v>
+        <v>19240140.91</v>
       </c>
     </row>
     <row r="14"/>
@@ -1304,7 +1276,7 @@
         <v>1.01</v>
       </c>
       <c r="O17" t="n">
-        <v>-30000000000</v>
+        <v>38496971.13</v>
       </c>
     </row>
     <row r="18">
@@ -1394,7 +1366,7 @@
         <v>1.39</v>
       </c>
       <c r="O19" t="n">
-        <v>-41000000000</v>
+        <v>38625001.91</v>
       </c>
     </row>
     <row r="20">
@@ -1484,7 +1456,7 @@
         <v>243.29</v>
       </c>
       <c r="O21" t="n">
-        <v>-21261000000000</v>
+        <v>30683994.29</v>
       </c>
     </row>
     <row r="22">
@@ -1574,7 +1546,7 @@
         <v>71.38</v>
       </c>
       <c r="O23" t="n">
-        <v>-6247750000000</v>
+        <v>33668994.9</v>
       </c>
     </row>
     <row r="24">
@@ -1664,7 +1636,7 @@
         <v>71.76000000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>-6267000000000</v>
+        <v>17963171.01</v>
       </c>
     </row>
     <row r="26"/>
@@ -1762,7 +1734,7 @@
         <v>1.32</v>
       </c>
       <c r="O29" t="n">
-        <v>-39000000000</v>
+        <v>32729148.86</v>
       </c>
     </row>
     <row r="30">
@@ -1852,7 +1824,7 @@
         <v>1.39</v>
       </c>
       <c r="O31" t="n">
-        <v>-41000000000</v>
+        <v>18452882.77</v>
       </c>
     </row>
     <row r="32">
@@ -1942,7 +1914,7 @@
         <v>239.87</v>
       </c>
       <c r="O33" t="n">
-        <v>-21173000000000</v>
+        <v>39235115.05</v>
       </c>
     </row>
     <row r="34">
@@ -2032,7 +2004,7 @@
         <v>70.59</v>
       </c>
       <c r="O35" t="n">
-        <v>-6207000000000</v>
+        <v>18533945.08</v>
       </c>
     </row>
     <row r="36">
@@ -2122,7 +2094,7 @@
         <v>70.44</v>
       </c>
       <c r="O37" t="n">
-        <v>-6199500000000</v>
+        <v>20493984.22</v>
       </c>
     </row>
     <row r="38"/>
@@ -2220,7 +2192,7 @@
         <v>0.87</v>
       </c>
       <c r="O41" t="n">
-        <v>-26000000000</v>
+        <v>18419981</v>
       </c>
     </row>
     <row r="42">
@@ -2310,7 +2282,7 @@
         <v>1.15</v>
       </c>
       <c r="O43" t="n">
-        <v>-34000000000</v>
+        <v>33660888.67</v>
       </c>
     </row>
     <row r="44">
@@ -2400,7 +2372,7 @@
         <v>236.02</v>
       </c>
       <c r="O45" t="n">
-        <v>-21072000000000</v>
+        <v>44610977.17</v>
       </c>
     </row>
     <row r="46">
@@ -2490,7 +2462,7 @@
         <v>69.43000000000001</v>
       </c>
       <c r="O47" t="n">
-        <v>-6147000000000</v>
+        <v>27738094.33</v>
       </c>
     </row>
     <row r="48">
@@ -2580,7 +2552,7 @@
         <v>68.26000000000001</v>
       </c>
       <c r="O49" t="n">
-        <v>-6085000000000</v>
+        <v>27348041.53</v>
       </c>
     </row>
     <row r="50"/>
@@ -2678,7 +2650,7 @@
         <v>1.08</v>
       </c>
       <c r="O53" t="n">
-        <v>-32000000000</v>
+        <v>38476228.71</v>
       </c>
     </row>
     <row r="54">
@@ -2768,7 +2740,7 @@
         <v>1.21</v>
       </c>
       <c r="O55" t="n">
-        <v>-36000000000</v>
+        <v>10905027.39</v>
       </c>
     </row>
     <row r="56">
@@ -2858,7 +2830,7 @@
         <v>239.83</v>
       </c>
       <c r="O57" t="n">
-        <v>-21172000000000</v>
+        <v>44939994.81</v>
       </c>
     </row>
     <row r="58">
@@ -2948,7 +2920,7 @@
         <v>71</v>
       </c>
       <c r="O59" t="n">
-        <v>-6228250000000</v>
+        <v>28671979.9</v>
       </c>
     </row>
     <row r="60">
@@ -3038,7 +3010,7 @@
         <v>70.90000000000001</v>
       </c>
       <c r="O61" t="n">
-        <v>-6223000000000</v>
+        <v>40706872.94</v>
       </c>
     </row>
     <row r="62"/>
@@ -3136,7 +3108,7 @@
         <v>1.01</v>
       </c>
       <c r="O65" t="n">
-        <v>-30000000000</v>
+        <v>23524045.94</v>
       </c>
     </row>
     <row r="66">
@@ -3226,7 +3198,7 @@
         <v>0.87</v>
       </c>
       <c r="O67" t="n">
-        <v>-26000000000</v>
+        <v>18359899.52</v>
       </c>
     </row>
     <row r="68">
@@ -3316,7 +3288,7 @@
         <v>69.3</v>
       </c>
       <c r="O69" t="n">
-        <v>-6139750000000</v>
+        <v>34145116.81</v>
       </c>
     </row>
     <row r="70">
@@ -3406,7 +3378,7 @@
         <v>240.91</v>
       </c>
       <c r="O71" t="n">
-        <v>-21200000000000</v>
+        <v>32798051.83</v>
       </c>
     </row>
     <row r="72">
@@ -3496,7 +3468,7 @@
         <v>71.56999999999999</v>
       </c>
       <c r="O73" t="n">
-        <v>-6257000000000</v>
+        <v>21759033.2</v>
       </c>
     </row>
     <row r="74"/>
@@ -3594,7 +3566,7 @@
         <v>1.11</v>
       </c>
       <c r="O77" t="n">
-        <v>-33000000000</v>
+        <v>25290012.36</v>
       </c>
     </row>
     <row r="78">
@@ -3684,7 +3656,7 @@
         <v>1.32</v>
       </c>
       <c r="O79" t="n">
-        <v>-39000000000</v>
+        <v>55114984.51</v>
       </c>
     </row>
     <row r="80">
@@ -3774,7 +3746,7 @@
         <v>72.87</v>
       </c>
       <c r="O81" t="n">
-        <v>-6323000000000</v>
+        <v>31725883.48</v>
       </c>
     </row>
     <row r="82">
@@ -3864,7 +3836,7 @@
         <v>242.7</v>
       </c>
       <c r="O83" t="n">
-        <v>-21246000000000</v>
+        <v>36605834.96</v>
       </c>
     </row>
     <row r="84">
@@ -3954,7 +3926,7 @@
         <v>71.7</v>
       </c>
       <c r="O85" t="n">
-        <v>-6263750000000</v>
+        <v>20184040.07</v>
       </c>
     </row>
     <row r="86"/>
@@ -4052,7 +4024,7 @@
         <v>1.15</v>
       </c>
       <c r="O89" t="n">
-        <v>-34000000000</v>
+        <v>43438911.44</v>
       </c>
     </row>
     <row r="90">
@@ -4142,7 +4114,7 @@
         <v>0.74</v>
       </c>
       <c r="O91" t="n">
-        <v>-22000000000</v>
+        <v>44323921.2</v>
       </c>
     </row>
     <row r="92">
@@ -4232,7 +4204,7 @@
         <v>235.35</v>
       </c>
       <c r="O93" t="n">
-        <v>-21054000000000</v>
+        <v>46604156.49</v>
       </c>
     </row>
     <row r="94">
@@ -4322,7 +4294,7 @@
         <v>66.70999999999999</v>
       </c>
       <c r="O95" t="n">
-        <v>-6002500000000</v>
+        <v>48552036.29</v>
       </c>
     </row>
     <row r="96">
@@ -4412,7 +4384,7 @@
         <v>68.29000000000001</v>
       </c>
       <c r="O97" t="n">
-        <v>-6087000000000</v>
+        <v>14880895.61</v>
       </c>
     </row>
     <row r="98"/>
@@ -4510,7 +4482,7 @@
         <v>1.18</v>
       </c>
       <c r="O101" t="n">
-        <v>-35000000000</v>
+        <v>15892028.81</v>
       </c>
     </row>
     <row r="102">
@@ -4600,7 +4572,7 @@
         <v>1.04</v>
       </c>
       <c r="O103" t="n">
-        <v>-31000000000</v>
+        <v>19951105.12</v>
       </c>
     </row>
     <row r="104">
@@ -4690,7 +4662,7 @@
         <v>70</v>
       </c>
       <c r="O105" t="n">
-        <v>-6176500000000</v>
+        <v>19885063.17</v>
       </c>
     </row>
     <row r="106">
@@ -4780,7 +4752,7 @@
         <v>70.22</v>
       </c>
       <c r="O107" t="n">
-        <v>-6188000000000</v>
+        <v>17603874.21</v>
       </c>
     </row>
     <row r="108">
@@ -4870,7 +4842,7 @@
         <v>238.56</v>
       </c>
       <c r="O109" t="n">
-        <v>-21139000000000</v>
+        <v>23811101.91</v>
       </c>
     </row>
     <row r="110"/>
@@ -4968,7 +4940,7 @@
         <v>1.11</v>
       </c>
       <c r="O113" t="n">
-        <v>-33000000000</v>
+        <v>43051004.41</v>
       </c>
     </row>
     <row r="114">
@@ -5058,7 +5030,7 @@
         <v>0.87</v>
       </c>
       <c r="O115" t="n">
-        <v>-26000000000</v>
+        <v>51699876.79</v>
       </c>
     </row>
     <row r="116">
@@ -5148,7 +5120,7 @@
         <v>68.23</v>
       </c>
       <c r="O117" t="n">
-        <v>-6083500000000</v>
+        <v>22830963.13</v>
       </c>
     </row>
     <row r="118">
@@ -5238,7 +5210,7 @@
         <v>236.25</v>
       </c>
       <c r="O119" t="n">
-        <v>-21078000000000</v>
+        <v>43720960.62</v>
       </c>
     </row>
     <row r="120">
@@ -5328,7 +5300,7 @@
         <v>68.70999999999999</v>
       </c>
       <c r="O121" t="n">
-        <v>-6109000000000</v>
+        <v>21187067.03</v>
       </c>
     </row>
     <row r="122"/>
@@ -6741,11 +6713,11 @@
         </is>
       </c>
       <c r="B243">
-        <f>ROUND(AVERAGEIF(D1:D121, "&lt;40" , O1:O121), 2</f>
+        <f>ROUND(AVERAGEIF(E1:E121, "&lt;40" , O1:O121), 2</f>
         <v/>
       </c>
       <c r="C243">
-        <f>ROUND(AVERAGEIF(D1:D121, "&gt;=40", O1:O121), 2</f>
+        <f>ROUND(AVERAGEIF(E1:E121, "&gt;=40", O1:O121), 2</f>
         <v/>
       </c>
       <c r="D243">
@@ -6986,7 +6958,7 @@
         <v>1.28</v>
       </c>
       <c r="O5" t="n">
-        <v>-38000000000</v>
+        <v>46250104.9</v>
       </c>
     </row>
     <row r="6">
@@ -7076,7 +7048,7 @@
         <v>1.04</v>
       </c>
       <c r="O7" t="n">
-        <v>-31000000000</v>
+        <v>44736146.93</v>
       </c>
     </row>
     <row r="8">
@@ -7166,7 +7138,7 @@
         <v>81.12</v>
       </c>
       <c r="O9" t="n">
-        <v>-6718000000000</v>
+        <v>58973073.96</v>
       </c>
     </row>
     <row r="10">
@@ -7256,7 +7228,7 @@
         <v>259.97</v>
       </c>
       <c r="O11" t="n">
-        <v>-21666000000000</v>
+        <v>65499067.31</v>
       </c>
     </row>
     <row r="12">
@@ -7346,7 +7318,7 @@
         <v>79.76000000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>-6655500000000</v>
+        <v>51951169.97</v>
       </c>
     </row>
     <row r="14"/>
@@ -7444,7 +7416,7 @@
         <v>1.01</v>
       </c>
       <c r="O17" t="n">
-        <v>-30000000000</v>
+        <v>47792911.53</v>
       </c>
     </row>
     <row r="18">
@@ -7534,7 +7506,7 @@
         <v>1.39</v>
       </c>
       <c r="O19" t="n">
-        <v>-41000000000</v>
+        <v>36161899.57</v>
       </c>
     </row>
     <row r="20">
@@ -7624,7 +7596,7 @@
         <v>240.14</v>
       </c>
       <c r="O21" t="n">
-        <v>-21180000000000</v>
+        <v>42135000.23</v>
       </c>
     </row>
     <row r="22">
@@ -7714,7 +7686,7 @@
         <v>72.18000000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>-6288000000000</v>
+        <v>58618068.7</v>
       </c>
     </row>
     <row r="24">
@@ -7804,7 +7776,7 @@
         <v>70.59999999999999</v>
       </c>
       <c r="O25" t="n">
-        <v>-6207250000000</v>
+        <v>42775154.11</v>
       </c>
     </row>
     <row r="26"/>
@@ -7902,7 +7874,7 @@
         <v>1.35</v>
       </c>
       <c r="O29" t="n">
-        <v>-40000000000</v>
+        <v>35403966.9</v>
       </c>
     </row>
     <row r="30">
@@ -7992,7 +7964,7 @@
         <v>1.08</v>
       </c>
       <c r="O31" t="n">
-        <v>-32000000000</v>
+        <v>31492948.53</v>
       </c>
     </row>
     <row r="32">
@@ -8082,7 +8054,7 @@
         <v>240.14</v>
       </c>
       <c r="O33" t="n">
-        <v>-21180000000000</v>
+        <v>38725852.97</v>
       </c>
     </row>
     <row r="34">
@@ -8172,7 +8144,7 @@
         <v>71.78</v>
       </c>
       <c r="O35" t="n">
-        <v>-6268000000000</v>
+        <v>33872842.79</v>
       </c>
     </row>
     <row r="36">
@@ -8262,7 +8234,7 @@
         <v>70.55</v>
       </c>
       <c r="O37" t="n">
-        <v>-6204750000000</v>
+        <v>19186973.57</v>
       </c>
     </row>
     <row r="38"/>
@@ -8360,7 +8332,7 @@
         <v>1.15</v>
       </c>
       <c r="O41" t="n">
-        <v>-34000000000</v>
+        <v>116137027.74</v>
       </c>
     </row>
     <row r="42">
@@ -8450,7 +8422,7 @@
         <v>1.11</v>
       </c>
       <c r="O43" t="n">
-        <v>-33000000000</v>
+        <v>5793809.89</v>
       </c>
     </row>
     <row r="44">
@@ -8540,7 +8512,7 @@
         <v>236.44</v>
       </c>
       <c r="O45" t="n">
-        <v>-21083000000000</v>
+        <v>121026992.8</v>
       </c>
     </row>
     <row r="46">
@@ -8630,7 +8602,7 @@
         <v>69.48999999999999</v>
       </c>
       <c r="O47" t="n">
-        <v>-6150000000000</v>
+        <v>58443069.46</v>
       </c>
     </row>
     <row r="48">
@@ -8720,7 +8692,7 @@
         <v>68.01000000000001</v>
       </c>
       <c r="O49" t="n">
-        <v>-6071750000000</v>
+        <v>55783987.05</v>
       </c>
     </row>
     <row r="50"/>
@@ -8818,7 +8790,7 @@
         <v>1.15</v>
       </c>
       <c r="O53" t="n">
-        <v>-34000000000</v>
+        <v>34029960.63</v>
       </c>
     </row>
     <row r="54">
@@ -8908,7 +8880,7 @@
         <v>1.28</v>
       </c>
       <c r="O55" t="n">
-        <v>-38000000000</v>
+        <v>35641908.65</v>
       </c>
     </row>
     <row r="56">
@@ -8998,7 +8970,7 @@
         <v>69.53</v>
       </c>
       <c r="O57" t="n">
-        <v>-6152250000000</v>
+        <v>39650917.05</v>
       </c>
     </row>
     <row r="58">
@@ -9088,7 +9060,7 @@
         <v>70.75</v>
       </c>
       <c r="O59" t="n">
-        <v>-6215000000000</v>
+        <v>16540050.51</v>
       </c>
     </row>
     <row r="60">
@@ -9178,7 +9150,7 @@
         <v>242.27</v>
       </c>
       <c r="O61" t="n">
-        <v>-21235000000000</v>
+        <v>44712066.65</v>
       </c>
     </row>
     <row r="62"/>
@@ -9276,7 +9248,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="O65" t="n">
-        <v>-28000000000</v>
+        <v>12570858</v>
       </c>
     </row>
     <row r="66">
@@ -9366,7 +9338,7 @@
         <v>1.11</v>
       </c>
       <c r="O67" t="n">
-        <v>-33000000000</v>
+        <v>20084857.94</v>
       </c>
     </row>
     <row r="68">
@@ -9456,7 +9428,7 @@
         <v>69.59999999999999</v>
       </c>
       <c r="O69" t="n">
-        <v>-6155500000000</v>
+        <v>32686948.78</v>
       </c>
     </row>
     <row r="70">
@@ -9546,7 +9518,7 @@
         <v>236.47</v>
       </c>
       <c r="O71" t="n">
-        <v>-21084000000000</v>
+        <v>43319940.57</v>
       </c>
     </row>
     <row r="72">
@@ -9636,7 +9608,7 @@
         <v>69.66</v>
       </c>
       <c r="O73" t="n">
-        <v>-6159000000000</v>
+        <v>15615940.09</v>
       </c>
     </row>
     <row r="74"/>
@@ -9734,7 +9706,7 @@
         <v>1.45</v>
       </c>
       <c r="O77" t="n">
-        <v>-43000000000</v>
+        <v>25186061.86</v>
       </c>
     </row>
     <row r="78">
@@ -9824,7 +9796,7 @@
         <v>1.21</v>
       </c>
       <c r="O79" t="n">
-        <v>-36000000000</v>
+        <v>11598825.45</v>
       </c>
     </row>
     <row r="80">
@@ -9914,7 +9886,7 @@
         <v>241.84</v>
       </c>
       <c r="O81" t="n">
-        <v>-21224000000000</v>
+        <v>32933950.42</v>
       </c>
     </row>
     <row r="82">
@@ -10004,7 +9976,7 @@
         <v>70.69</v>
       </c>
       <c r="O83" t="n">
-        <v>-6212000000000</v>
+        <v>28443098.07</v>
       </c>
     </row>
     <row r="84">
@@ -10094,7 +10066,7 @@
         <v>71.27</v>
       </c>
       <c r="O85" t="n">
-        <v>-6242000000000</v>
+        <v>17880916.6</v>
       </c>
     </row>
     <row r="86"/>
@@ -10192,7 +10164,7 @@
         <v>1.04</v>
       </c>
       <c r="O89" t="n">
-        <v>-31000000000</v>
+        <v>8373022.08</v>
       </c>
     </row>
     <row r="90">
@@ -10282,7 +10254,7 @@
         <v>1.11</v>
       </c>
       <c r="O91" t="n">
-        <v>-33000000000</v>
+        <v>71463108.06</v>
       </c>
     </row>
     <row r="92">
@@ -10372,7 +10344,7 @@
         <v>68.41</v>
       </c>
       <c r="O93" t="n">
-        <v>-6093000000000</v>
+        <v>74720859.53</v>
       </c>
     </row>
     <row r="94">
@@ -10462,7 +10434,7 @@
         <v>66.86</v>
       </c>
       <c r="O95" t="n">
-        <v>-6010250000000</v>
+        <v>90041160.58</v>
       </c>
     </row>
     <row r="96">
@@ -10552,7 +10524,7 @@
         <v>233.33</v>
       </c>
       <c r="O97" t="n">
-        <v>-21000000000000</v>
+        <v>82092046.73999999</v>
       </c>
     </row>
     <row r="98"/>
@@ -10650,7 +10622,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="O101" t="n">
-        <v>-28000000000</v>
+        <v>39113044.74</v>
       </c>
     </row>
     <row r="102">
@@ -10740,7 +10712,7 @@
         <v>1.18</v>
       </c>
       <c r="O103" t="n">
-        <v>-35000000000</v>
+        <v>20594120.03</v>
       </c>
     </row>
     <row r="104">
@@ -10830,7 +10802,7 @@
         <v>71.04000000000001</v>
       </c>
       <c r="O105" t="n">
-        <v>-6230250000000</v>
+        <v>45472145.08</v>
       </c>
     </row>
     <row r="106">
@@ -10920,7 +10892,7 @@
         <v>240.02</v>
       </c>
       <c r="O107" t="n">
-        <v>-21177000000000</v>
+        <v>43977022.17</v>
       </c>
     </row>
     <row r="108">
@@ -11010,7 +10982,7 @@
         <v>71.37</v>
       </c>
       <c r="O109" t="n">
-        <v>-6247000000000</v>
+        <v>33911943.44</v>
       </c>
     </row>
     <row r="110"/>
@@ -11108,7 +11080,7 @@
         <v>1.15</v>
       </c>
       <c r="O113" t="n">
-        <v>-34000000000</v>
+        <v>14151811.6</v>
       </c>
     </row>
     <row r="114">
@@ -11198,7 +11170,7 @@
         <v>1.11</v>
       </c>
       <c r="O115" t="n">
-        <v>-33000000000</v>
+        <v>10782003.4</v>
       </c>
     </row>
     <row r="116">
@@ -11288,7 +11260,7 @@
         <v>234.97</v>
       </c>
       <c r="O117" t="n">
-        <v>-21044000000000</v>
+        <v>14593839.65</v>
       </c>
     </row>
     <row r="118">
@@ -11378,7 +11350,7 @@
         <v>67.65000000000001</v>
       </c>
       <c r="O119" t="n">
-        <v>-6053000000000</v>
+        <v>16216993.33</v>
       </c>
     </row>
     <row r="120">
@@ -11468,7 +11440,7 @@
         <v>67.67</v>
       </c>
       <c r="O121" t="n">
-        <v>-6053750000000</v>
+        <v>19306898.12</v>
       </c>
     </row>
     <row r="122"/>
@@ -12881,11 +12853,11 @@
         </is>
       </c>
       <c r="B243">
-        <f>ROUND(AVERAGEIF(D1:D121, "&lt;40" , O1:O121), 2</f>
+        <f>ROUND(AVERAGEIF(E1:E121, "&lt;40" , O1:O121), 2</f>
         <v/>
       </c>
       <c r="C243">
-        <f>ROUND(AVERAGEIF(D1:D121, "&gt;=40", O1:O121), 2</f>
+        <f>ROUND(AVERAGEIF(E1:E121, "&gt;=40", O1:O121), 2</f>
         <v/>
       </c>
       <c r="D243">
@@ -12929,7 +12901,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G96"/>
+  <dimension ref="A1:D93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12940,10 +12912,7 @@
     <col width="68" customWidth="1" min="1" max="1"/>
     <col width="19" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
-    <col width="4" customWidth="1" min="4" max="4"/>
-    <col width="51" customWidth="1" min="5" max="5"/>
-    <col width="51" customWidth="1" min="6" max="6"/>
-    <col width="51" customWidth="1" min="7" max="7"/>
+    <col width="51" customWidth="1" min="4" max="4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -12953,2052 +12922,1448 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Variation1: is betwee KShort and ECMP</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Variation2: is betwee KShort and ECMP+SRv6</t>
-        </is>
-      </c>
-    </row>
+    <row r="2"/>
+    <row r="3"/>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Variation3: is betwee ECMP and ECMP+SRv6</t>
-        </is>
-      </c>
-    </row>
-    <row r="5"/>
+          <t>HIGH</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>NO,SFC</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>SFC</t>
+        </is>
+      </c>
+      <c r="D4" s="1" t="inlineStr">
+        <is>
+          <t>Variation (%)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>All DSCP: All Data Flows</t>
+        </is>
+      </c>
+    </row>
     <row r="6"/>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>HIGH</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="inlineStr">
-        <is>
-          <t>NO,SFC</t>
-        </is>
-      </c>
-      <c r="C7" s="1" t="inlineStr">
-        <is>
-          <t>SFC</t>
-        </is>
-      </c>
-      <c r="D7" s="1" t="n"/>
-      <c r="E7" s="1" t="inlineStr">
-        <is>
-          <t>Variation 1 (%)</t>
-        </is>
-      </c>
-      <c r="F7" s="1" t="inlineStr">
-        <is>
-          <t>Variation 2 (%)</t>
-        </is>
-      </c>
-      <c r="G7" s="1" t="n"/>
+          <t>AVG Out of Order Packets (Nº)</t>
+        </is>
+      </c>
+      <c r="B7">
+        <f>'HIGH-NO,SFC'!B126</f>
+        <v/>
+      </c>
+      <c r="C7">
+        <f>'HIGH-SFC'!B126</f>
+        <v/>
+      </c>
+      <c r="D7">
+        <f>IFERROR(ROUND((C7 - B7) / ABS(B7) * 100, 2), 0)</f>
+        <v/>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>All DSCP: All Data Flows</t>
-        </is>
-      </c>
-    </row>
-    <row r="9"/>
+          <t>AVG Packet Loss (Nº)</t>
+        </is>
+      </c>
+      <c r="B8">
+        <f>'HIGH-NO,SFC'!B127</f>
+        <v/>
+      </c>
+      <c r="C8">
+        <f>'HIGH-SFC'!B127</f>
+        <v/>
+      </c>
+      <c r="D8">
+        <f>IFERROR(ROUND((C8 - B8) / ABS(B8) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>AVG Packet Loss (%)</t>
+        </is>
+      </c>
+      <c r="B9">
+        <f>'HIGH-NO,SFC'!B128</f>
+        <v/>
+      </c>
+      <c r="C9">
+        <f>'HIGH-SFC'!B128</f>
+        <v/>
+      </c>
+      <c r="D9">
+        <f>IFERROR(ROUND((C9 - B9) / ABS(B9) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>AVG Out of Order Packets (Nº)</t>
+          <t>AVG 1º Packet Delay (nanoseconds)</t>
         </is>
       </c>
       <c r="B10">
-        <f>'HIGH-NO,SFC'!B126</f>
+        <f>'HIGH-NO,SFC'!B129</f>
         <v/>
       </c>
       <c r="C10">
-        <f>'HIGH-SFC'!B126</f>
-        <v/>
-      </c>
-      <c r="E10">
+        <f>'HIGH-SFC'!B129</f>
+        <v/>
+      </c>
+      <c r="D10">
         <f>IFERROR(ROUND((C10 - B10) / ABS(B10) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F10">
-        <f>IFERROR(ROUND((D10 - B10) / ABS(B10) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G10">
-        <f>IFERROR(ROUND((D10 - C10) / ABS(C10) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (Nº)</t>
+          <t>AVG Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B11">
-        <f>'HIGH-NO,SFC'!B127</f>
+        <f>'HIGH-NO,SFC'!B130</f>
         <v/>
       </c>
       <c r="C11">
-        <f>'HIGH-SFC'!B127</f>
-        <v/>
-      </c>
-      <c r="E11">
+        <f>'HIGH-SFC'!B130</f>
+        <v/>
+      </c>
+      <c r="D11">
         <f>IFERROR(ROUND((C11 - B11) / ABS(B11) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F11">
-        <f>IFERROR(ROUND((D11 - B11) / ABS(B11) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G11">
-        <f>IFERROR(ROUND((D11 - C11) / ABS(C11) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (%)</t>
+          <t>STD Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B12">
-        <f>'HIGH-NO,SFC'!B128</f>
+        <f>'HIGH-NO,SFC'!B131</f>
         <v/>
       </c>
       <c r="C12">
-        <f>'HIGH-SFC'!B128</f>
-        <v/>
-      </c>
-      <c r="E12">
+        <f>'HIGH-SFC'!B131</f>
+        <v/>
+      </c>
+      <c r="D12">
         <f>IFERROR(ROUND((C12 - B12) / ABS(B12) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F12">
-        <f>IFERROR(ROUND((D12 - B12) / ABS(B12) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G12">
-        <f>IFERROR(ROUND((D12 - C12) / ABS(C12) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>AVG 1º Packet Delay (nanoseconds)</t>
+          <t>AVG Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B13">
-        <f>'HIGH-NO,SFC'!B129</f>
+        <f>'HIGH-NO,SFC'!B132</f>
         <v/>
       </c>
       <c r="C13">
-        <f>'HIGH-SFC'!B129</f>
-        <v/>
-      </c>
-      <c r="E13">
+        <f>'HIGH-SFC'!B132</f>
+        <v/>
+      </c>
+      <c r="D13">
         <f>IFERROR(ROUND((C13 - B13) / ABS(B13) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F13">
-        <f>IFERROR(ROUND((D13 - B13) / ABS(B13) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G13">
-        <f>IFERROR(ROUND((D13 - C13) / ABS(C13) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>AVG Flow Jitter (nanoseconds)</t>
+          <t>STD Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B14">
-        <f>'HIGH-NO,SFC'!B130</f>
+        <f>'HIGH-NO,SFC'!B133</f>
         <v/>
       </c>
       <c r="C14">
-        <f>'HIGH-SFC'!B130</f>
-        <v/>
-      </c>
-      <c r="E14">
+        <f>'HIGH-SFC'!B133</f>
+        <v/>
+      </c>
+      <c r="D14">
         <f>IFERROR(ROUND((C14 - B14) / ABS(B14) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F14">
-        <f>IFERROR(ROUND((D14 - B14) / ABS(B14) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G14">
-        <f>IFERROR(ROUND((D14 - C14) / ABS(C14) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>STD Flow Jitter (nanoseconds)</t>
+          <t>AVG Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B15">
-        <f>'HIGH-NO,SFC'!B131</f>
+        <f>'HIGH-NO,SFC'!B134</f>
         <v/>
       </c>
       <c r="C15">
-        <f>'HIGH-SFC'!B131</f>
-        <v/>
-      </c>
-      <c r="E15">
+        <f>'HIGH-SFC'!B134</f>
+        <v/>
+      </c>
+      <c r="D15">
         <f>IFERROR(ROUND((C15 - B15) / ABS(B15) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F15">
-        <f>IFERROR(ROUND((D15 - B15) / ABS(B15) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G15">
-        <f>IFERROR(ROUND((D15 - C15) / ABS(C15) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>AVG Flows Latency (nanoseconds)</t>
+          <t>STD Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B16">
-        <f>'HIGH-NO,SFC'!B132</f>
+        <f>'HIGH-NO,SFC'!B135</f>
         <v/>
       </c>
       <c r="C16">
-        <f>'HIGH-SFC'!B132</f>
-        <v/>
-      </c>
-      <c r="E16">
+        <f>'HIGH-SFC'!B135</f>
+        <v/>
+      </c>
+      <c r="D16">
         <f>IFERROR(ROUND((C16 - B16) / ABS(B16) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F16">
-        <f>IFERROR(ROUND((D16 - B16) / ABS(B16) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G16">
-        <f>IFERROR(ROUND((D16 - C16) / ABS(C16) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>STD Flows Latency (nanoseconds)</t>
+          <t>AVG of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B17">
-        <f>'HIGH-NO,SFC'!B133</f>
+        <f>'HIGH-NO,SFC'!B143</f>
         <v/>
       </c>
       <c r="C17">
-        <f>'HIGH-SFC'!B133</f>
-        <v/>
-      </c>
-      <c r="E17">
+        <f>'HIGH-SFC'!B143</f>
+        <v/>
+      </c>
+      <c r="D17">
         <f>IFERROR(ROUND((C17 - B17) / ABS(B17) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F17">
-        <f>IFERROR(ROUND((D17 - B17) / ABS(B17) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G17">
-        <f>IFERROR(ROUND((D17 - C17) / ABS(C17) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>AVG Hop Latency (nanoseconds)</t>
+          <t>Standard Deviation of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B18">
-        <f>'HIGH-NO,SFC'!B134</f>
+        <f>'HIGH-NO,SFC'!B144</f>
         <v/>
       </c>
       <c r="C18">
-        <f>'HIGH-SFC'!B134</f>
-        <v/>
-      </c>
-      <c r="E18">
+        <f>'HIGH-SFC'!B144</f>
+        <v/>
+      </c>
+      <c r="D18">
         <f>IFERROR(ROUND((C18 - B18) / ABS(B18) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F18">
-        <f>IFERROR(ROUND((D18 - B18) / ABS(B18) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G18">
-        <f>IFERROR(ROUND((D18 - C18) / ABS(C18) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>STD Hop Latency (nanoseconds)</t>
+          <t>AVG of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B19">
-        <f>'HIGH-NO,SFC'!B135</f>
+        <f>'HIGH-NO,SFC'!C143</f>
         <v/>
       </c>
       <c r="C19">
-        <f>'HIGH-SFC'!B135</f>
-        <v/>
-      </c>
-      <c r="E19">
+        <f>'HIGH-SFC'!C143</f>
+        <v/>
+      </c>
+      <c r="D19">
         <f>IFERROR(ROUND((C19 - B19) / ABS(B19) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F19">
-        <f>IFERROR(ROUND((D19 - B19) / ABS(B19) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G19">
-        <f>IFERROR(ROUND((D19 - C19) / ABS(C19) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>AVG of packets to each switch (%)</t>
+          <t>Standard Deviation of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B20">
-        <f>'HIGH-NO,SFC'!B143</f>
+        <f>'HIGH-NO,SFC'!C144</f>
         <v/>
       </c>
       <c r="C20">
-        <f>'HIGH-SFC'!B143</f>
-        <v/>
-      </c>
-      <c r="E20">
+        <f>'HIGH-SFC'!C144</f>
+        <v/>
+      </c>
+      <c r="D20">
         <f>IFERROR(ROUND((C20 - B20) / ABS(B20) * 100, 2), 0)</f>
         <v/>
       </c>
-      <c r="F20">
-        <f>IFERROR(ROUND((D20 - B20) / ABS(B20) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G20">
-        <f>IFERROR(ROUND((D20 - C20) / ABS(C20) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation of packets to each switch (%)</t>
-        </is>
-      </c>
-      <c r="B21">
-        <f>'HIGH-NO,SFC'!B144</f>
-        <v/>
-      </c>
-      <c r="C21">
-        <f>'HIGH-SFC'!B144</f>
-        <v/>
-      </c>
-      <c r="E21">
-        <f>IFERROR(ROUND((C21 - B21) / ABS(B21) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F21">
-        <f>IFERROR(ROUND((D21 - B21) / ABS(B21) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G21">
-        <f>IFERROR(ROUND((D21 - C21) / ABS(C21) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
+    </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>AVG of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B22">
-        <f>'HIGH-NO,SFC'!C143</f>
-        <v/>
-      </c>
-      <c r="C22">
-        <f>'HIGH-SFC'!C143</f>
-        <v/>
-      </c>
-      <c r="E22">
-        <f>IFERROR(ROUND((C22 - B22) / ABS(B22) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F22">
-        <f>IFERROR(ROUND((D22 - B22) / ABS(B22) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G22">
-        <f>IFERROR(ROUND((D22 - C22) / ABS(C22) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B23">
-        <f>'HIGH-NO,SFC'!C144</f>
-        <v/>
-      </c>
-      <c r="C23">
-        <f>'HIGH-SFC'!C144</f>
-        <v/>
-      </c>
-      <c r="E23">
-        <f>IFERROR(ROUND((C23 - B23) / ABS(B23) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F23">
-        <f>IFERROR(ROUND((D23 - B23) / ABS(B23) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G23">
-        <f>IFERROR(ROUND((D23 - C23) / ABS(C23) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24"/>
+          <t>DSCP: 0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23"/>
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
+        <is>
+          <t>AVG Out of Order Packets (Nº)</t>
+        </is>
+      </c>
+      <c r="B24">
+        <f>'HIGH-NO,SFC'!B149</f>
+        <v/>
+      </c>
+      <c r="C24">
+        <f>'HIGH-SFC'!B149</f>
+        <v/>
+      </c>
+      <c r="D24">
+        <f>IFERROR(ROUND((C24 - B24) / ABS(B24) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>DSCP: 0</t>
-        </is>
-      </c>
-    </row>
-    <row r="26"/>
+          <t>AVG Packet Loss (Nº)</t>
+        </is>
+      </c>
+      <c r="B25">
+        <f>'HIGH-NO,SFC'!B150</f>
+        <v/>
+      </c>
+      <c r="C25">
+        <f>'HIGH-SFC'!B150</f>
+        <v/>
+      </c>
+      <c r="D25">
+        <f>IFERROR(ROUND((C25 - B25) / ABS(B25) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>AVG Packet Loss (%)</t>
+        </is>
+      </c>
+      <c r="B26">
+        <f>'HIGH-NO,SFC'!B151</f>
+        <v/>
+      </c>
+      <c r="C26">
+        <f>'HIGH-SFC'!B151</f>
+        <v/>
+      </c>
+      <c r="D26">
+        <f>IFERROR(ROUND((C26 - B26) / ABS(B26) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>AVG Out of Order Packets (Nº)</t>
+          <t>AVG 1º Packet Delay (nanoseconds)</t>
         </is>
       </c>
       <c r="B27">
-        <f>'HIGH-NO,SFC'!B149</f>
+        <f>'HIGH-NO,SFC'!B152</f>
         <v/>
       </c>
       <c r="C27">
-        <f>'HIGH-SFC'!B149</f>
-        <v/>
-      </c>
-      <c r="E27">
+        <f>'HIGH-SFC'!B152</f>
+        <v/>
+      </c>
+      <c r="D27">
         <f>IFERROR(ROUND((C27 - B27) / ABS(B27) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F27">
-        <f>IFERROR(ROUND((D27 - B27) / ABS(B27) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G27">
-        <f>IFERROR(ROUND((D27 - C27) / ABS(C27) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (Nº)</t>
+          <t>AVG Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B28">
-        <f>'HIGH-NO,SFC'!B150</f>
+        <f>'HIGH-NO,SFC'!B153</f>
         <v/>
       </c>
       <c r="C28">
-        <f>'HIGH-SFC'!B150</f>
-        <v/>
-      </c>
-      <c r="E28">
+        <f>'HIGH-SFC'!B153</f>
+        <v/>
+      </c>
+      <c r="D28">
         <f>IFERROR(ROUND((C28 - B28) / ABS(B28) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F28">
-        <f>IFERROR(ROUND((D28 - B28) / ABS(B28) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G28">
-        <f>IFERROR(ROUND((D28 - C28) / ABS(C28) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (%)</t>
+          <t>STD Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B29">
-        <f>'HIGH-NO,SFC'!B151</f>
+        <f>'HIGH-NO,SFC'!B154</f>
         <v/>
       </c>
       <c r="C29">
-        <f>'HIGH-SFC'!B151</f>
-        <v/>
-      </c>
-      <c r="E29">
+        <f>'HIGH-SFC'!B154</f>
+        <v/>
+      </c>
+      <c r="D29">
         <f>IFERROR(ROUND((C29 - B29) / ABS(B29) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F29">
-        <f>IFERROR(ROUND((D29 - B29) / ABS(B29) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G29">
-        <f>IFERROR(ROUND((D29 - C29) / ABS(C29) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>AVG 1º Packet Delay (nanoseconds)</t>
+          <t>AVG Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B30">
-        <f>'HIGH-NO,SFC'!B152</f>
+        <f>'HIGH-NO,SFC'!B155</f>
         <v/>
       </c>
       <c r="C30">
-        <f>'HIGH-SFC'!B152</f>
-        <v/>
-      </c>
-      <c r="E30">
+        <f>'HIGH-SFC'!B155</f>
+        <v/>
+      </c>
+      <c r="D30">
         <f>IFERROR(ROUND((C30 - B30) / ABS(B30) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F30">
-        <f>IFERROR(ROUND((D30 - B30) / ABS(B30) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G30">
-        <f>IFERROR(ROUND((D30 - C30) / ABS(C30) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>AVG Flow Jitter (nanoseconds)</t>
+          <t>STD Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B31">
-        <f>'HIGH-NO,SFC'!B153</f>
+        <f>'HIGH-NO,SFC'!B156</f>
         <v/>
       </c>
       <c r="C31">
-        <f>'HIGH-SFC'!B153</f>
-        <v/>
-      </c>
-      <c r="E31">
+        <f>'HIGH-SFC'!B156</f>
+        <v/>
+      </c>
+      <c r="D31">
         <f>IFERROR(ROUND((C31 - B31) / ABS(B31) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F31">
-        <f>IFERROR(ROUND((D31 - B31) / ABS(B31) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G31">
-        <f>IFERROR(ROUND((D31 - C31) / ABS(C31) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>STD Flow Jitter (nanoseconds)</t>
+          <t>AVG Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B32">
-        <f>'HIGH-NO,SFC'!B154</f>
+        <f>'HIGH-NO,SFC'!B157</f>
         <v/>
       </c>
       <c r="C32">
-        <f>'HIGH-SFC'!B154</f>
-        <v/>
-      </c>
-      <c r="E32">
+        <f>'HIGH-SFC'!B157</f>
+        <v/>
+      </c>
+      <c r="D32">
         <f>IFERROR(ROUND((C32 - B32) / ABS(B32) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F32">
-        <f>IFERROR(ROUND((D32 - B32) / ABS(B32) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G32">
-        <f>IFERROR(ROUND((D32 - C32) / ABS(C32) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>AVG Flows Latency (nanoseconds)</t>
+          <t>STD Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B33">
-        <f>'HIGH-NO,SFC'!B155</f>
+        <f>'HIGH-NO,SFC'!B158</f>
         <v/>
       </c>
       <c r="C33">
-        <f>'HIGH-SFC'!B155</f>
-        <v/>
-      </c>
-      <c r="E33">
+        <f>'HIGH-SFC'!B158</f>
+        <v/>
+      </c>
+      <c r="D33">
         <f>IFERROR(ROUND((C33 - B33) / ABS(B33) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F33">
-        <f>IFERROR(ROUND((D33 - B33) / ABS(B33) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G33">
-        <f>IFERROR(ROUND((D33 - C33) / ABS(C33) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>STD Flows Latency (nanoseconds)</t>
+          <t>AVG of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B34">
-        <f>'HIGH-NO,SFC'!B156</f>
+        <f>'HIGH-NO,SFC'!B166</f>
         <v/>
       </c>
       <c r="C34">
-        <f>'HIGH-SFC'!B156</f>
-        <v/>
-      </c>
-      <c r="E34">
+        <f>'HIGH-SFC'!B166</f>
+        <v/>
+      </c>
+      <c r="D34">
         <f>IFERROR(ROUND((C34 - B34) / ABS(B34) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F34">
-        <f>IFERROR(ROUND((D34 - B34) / ABS(B34) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G34">
-        <f>IFERROR(ROUND((D34 - C34) / ABS(C34) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>AVG Hop Latency (nanoseconds)</t>
+          <t>Standard Deviation of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B35">
-        <f>'HIGH-NO,SFC'!B157</f>
+        <f>'HIGH-NO,SFC'!B167</f>
         <v/>
       </c>
       <c r="C35">
-        <f>'HIGH-SFC'!B157</f>
-        <v/>
-      </c>
-      <c r="E35">
+        <f>'HIGH-SFC'!B167</f>
+        <v/>
+      </c>
+      <c r="D35">
         <f>IFERROR(ROUND((C35 - B35) / ABS(B35) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F35">
-        <f>IFERROR(ROUND((D35 - B35) / ABS(B35) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G35">
-        <f>IFERROR(ROUND((D35 - C35) / ABS(C35) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>STD Hop Latency (nanoseconds)</t>
+          <t>AVG of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B36">
-        <f>'HIGH-NO,SFC'!B158</f>
+        <f>'HIGH-NO,SFC'!C166</f>
         <v/>
       </c>
       <c r="C36">
-        <f>'HIGH-SFC'!B158</f>
-        <v/>
-      </c>
-      <c r="E36">
+        <f>'HIGH-SFC'!C166</f>
+        <v/>
+      </c>
+      <c r="D36">
         <f>IFERROR(ROUND((C36 - B36) / ABS(B36) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F36">
-        <f>IFERROR(ROUND((D36 - B36) / ABS(B36) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G36">
-        <f>IFERROR(ROUND((D36 - C36) / ABS(C36) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>AVG of packets to each switch (%)</t>
+          <t>Standard Deviation of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B37">
-        <f>'HIGH-NO,SFC'!B166</f>
+        <f>'HIGH-NO,SFC'!C167</f>
         <v/>
       </c>
       <c r="C37">
-        <f>'HIGH-SFC'!B166</f>
-        <v/>
-      </c>
-      <c r="E37">
+        <f>'HIGH-SFC'!C167</f>
+        <v/>
+      </c>
+      <c r="D37">
         <f>IFERROR(ROUND((C37 - B37) / ABS(B37) * 100, 2), 0)</f>
         <v/>
       </c>
-      <c r="F37">
-        <f>IFERROR(ROUND((D37 - B37) / ABS(B37) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G37">
-        <f>IFERROR(ROUND((D37 - C37) / ABS(C37) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation of packets to each switch (%)</t>
-        </is>
-      </c>
-      <c r="B38">
-        <f>'HIGH-NO,SFC'!B167</f>
-        <v/>
-      </c>
-      <c r="C38">
-        <f>'HIGH-SFC'!B167</f>
-        <v/>
-      </c>
-      <c r="E38">
-        <f>IFERROR(ROUND((C38 - B38) / ABS(B38) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F38">
-        <f>IFERROR(ROUND((D38 - B38) / ABS(B38) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G38">
-        <f>IFERROR(ROUND((D38 - C38) / ABS(C38) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
+    </row>
+    <row r="38"/>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>AVG of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B39">
-        <f>'HIGH-NO,SFC'!C166</f>
-        <v/>
-      </c>
-      <c r="C39">
-        <f>'HIGH-SFC'!C166</f>
-        <v/>
-      </c>
-      <c r="E39">
-        <f>IFERROR(ROUND((C39 - B39) / ABS(B39) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F39">
-        <f>IFERROR(ROUND((D39 - B39) / ABS(B39) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G39">
-        <f>IFERROR(ROUND((D39 - C39) / ABS(C39) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B40">
-        <f>'HIGH-NO,SFC'!C167</f>
-        <v/>
-      </c>
-      <c r="C40">
-        <f>'HIGH-SFC'!C167</f>
-        <v/>
-      </c>
-      <c r="E40">
-        <f>IFERROR(ROUND((C40 - B40) / ABS(B40) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F40">
-        <f>IFERROR(ROUND((D40 - B40) / ABS(B40) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G40">
-        <f>IFERROR(ROUND((D40 - C40) / ABS(C40) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="41"/>
+          <t>DSCP: 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="40"/>
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
+        <is>
+          <t>AVG Out of Order Packets (Nº)</t>
+        </is>
+      </c>
+      <c r="B41">
+        <f>'HIGH-NO,SFC'!B172</f>
+        <v/>
+      </c>
+      <c r="C41">
+        <f>'HIGH-SFC'!B172</f>
+        <v/>
+      </c>
+      <c r="D41">
+        <f>IFERROR(ROUND((C41 - B41) / ABS(B41) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>DSCP: 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="43"/>
+          <t>AVG Packet Loss (Nº)</t>
+        </is>
+      </c>
+      <c r="B42">
+        <f>'HIGH-NO,SFC'!B173</f>
+        <v/>
+      </c>
+      <c r="C42">
+        <f>'HIGH-SFC'!B173</f>
+        <v/>
+      </c>
+      <c r="D42">
+        <f>IFERROR(ROUND((C42 - B42) / ABS(B42) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
+        <is>
+          <t>AVG Packet Loss (%)</t>
+        </is>
+      </c>
+      <c r="B43">
+        <f>'HIGH-NO,SFC'!B174</f>
+        <v/>
+      </c>
+      <c r="C43">
+        <f>'HIGH-SFC'!B174</f>
+        <v/>
+      </c>
+      <c r="D43">
+        <f>IFERROR(ROUND((C43 - B43) / ABS(B43) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>AVG Out of Order Packets (Nº)</t>
+          <t>AVG 1º Packet Delay (nanoseconds)</t>
         </is>
       </c>
       <c r="B44">
-        <f>'HIGH-NO,SFC'!B172</f>
+        <f>'HIGH-NO,SFC'!B175</f>
         <v/>
       </c>
       <c r="C44">
-        <f>'HIGH-SFC'!B172</f>
-        <v/>
-      </c>
-      <c r="E44">
+        <f>'HIGH-SFC'!B175</f>
+        <v/>
+      </c>
+      <c r="D44">
         <f>IFERROR(ROUND((C44 - B44) / ABS(B44) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F44">
-        <f>IFERROR(ROUND((D44 - B44) / ABS(B44) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G44">
-        <f>IFERROR(ROUND((D44 - C44) / ABS(C44) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (Nº)</t>
+          <t>AVG Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B45">
-        <f>'HIGH-NO,SFC'!B173</f>
+        <f>'HIGH-NO,SFC'!B176</f>
         <v/>
       </c>
       <c r="C45">
-        <f>'HIGH-SFC'!B173</f>
-        <v/>
-      </c>
-      <c r="E45">
+        <f>'HIGH-SFC'!B176</f>
+        <v/>
+      </c>
+      <c r="D45">
         <f>IFERROR(ROUND((C45 - B45) / ABS(B45) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F45">
-        <f>IFERROR(ROUND((D45 - B45) / ABS(B45) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G45">
-        <f>IFERROR(ROUND((D45 - C45) / ABS(C45) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (%)</t>
+          <t>STD Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B46">
-        <f>'HIGH-NO,SFC'!B174</f>
+        <f>'HIGH-NO,SFC'!B177</f>
         <v/>
       </c>
       <c r="C46">
-        <f>'HIGH-SFC'!B174</f>
-        <v/>
-      </c>
-      <c r="E46">
+        <f>'HIGH-SFC'!B177</f>
+        <v/>
+      </c>
+      <c r="D46">
         <f>IFERROR(ROUND((C46 - B46) / ABS(B46) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F46">
-        <f>IFERROR(ROUND((D46 - B46) / ABS(B46) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G46">
-        <f>IFERROR(ROUND((D46 - C46) / ABS(C46) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>AVG 1º Packet Delay (nanoseconds)</t>
+          <t>AVG Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B47">
-        <f>'HIGH-NO,SFC'!B175</f>
+        <f>'HIGH-NO,SFC'!B178</f>
         <v/>
       </c>
       <c r="C47">
-        <f>'HIGH-SFC'!B175</f>
-        <v/>
-      </c>
-      <c r="E47">
+        <f>'HIGH-SFC'!B178</f>
+        <v/>
+      </c>
+      <c r="D47">
         <f>IFERROR(ROUND((C47 - B47) / ABS(B47) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F47">
-        <f>IFERROR(ROUND((D47 - B47) / ABS(B47) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G47">
-        <f>IFERROR(ROUND((D47 - C47) / ABS(C47) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>AVG Flow Jitter (nanoseconds)</t>
+          <t>STD Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B48">
-        <f>'HIGH-NO,SFC'!B176</f>
+        <f>'HIGH-NO,SFC'!B179</f>
         <v/>
       </c>
       <c r="C48">
-        <f>'HIGH-SFC'!B176</f>
-        <v/>
-      </c>
-      <c r="E48">
+        <f>'HIGH-SFC'!B179</f>
+        <v/>
+      </c>
+      <c r="D48">
         <f>IFERROR(ROUND((C48 - B48) / ABS(B48) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F48">
-        <f>IFERROR(ROUND((D48 - B48) / ABS(B48) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G48">
-        <f>IFERROR(ROUND((D48 - C48) / ABS(C48) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>STD Flow Jitter (nanoseconds)</t>
+          <t>AVG Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B49">
-        <f>'HIGH-NO,SFC'!B177</f>
+        <f>'HIGH-NO,SFC'!B180</f>
         <v/>
       </c>
       <c r="C49">
-        <f>'HIGH-SFC'!B177</f>
-        <v/>
-      </c>
-      <c r="E49">
+        <f>'HIGH-SFC'!B180</f>
+        <v/>
+      </c>
+      <c r="D49">
         <f>IFERROR(ROUND((C49 - B49) / ABS(B49) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F49">
-        <f>IFERROR(ROUND((D49 - B49) / ABS(B49) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G49">
-        <f>IFERROR(ROUND((D49 - C49) / ABS(C49) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>AVG Flows Latency (nanoseconds)</t>
+          <t>STD Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B50">
-        <f>'HIGH-NO,SFC'!B178</f>
+        <f>'HIGH-NO,SFC'!B181</f>
         <v/>
       </c>
       <c r="C50">
-        <f>'HIGH-SFC'!B178</f>
-        <v/>
-      </c>
-      <c r="E50">
+        <f>'HIGH-SFC'!B181</f>
+        <v/>
+      </c>
+      <c r="D50">
         <f>IFERROR(ROUND((C50 - B50) / ABS(B50) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F50">
-        <f>IFERROR(ROUND((D50 - B50) / ABS(B50) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G50">
-        <f>IFERROR(ROUND((D50 - C50) / ABS(C50) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>STD Flows Latency (nanoseconds)</t>
+          <t>AVG of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B51">
-        <f>'HIGH-NO,SFC'!B179</f>
+        <f>'HIGH-NO,SFC'!B189</f>
         <v/>
       </c>
       <c r="C51">
-        <f>'HIGH-SFC'!B179</f>
-        <v/>
-      </c>
-      <c r="E51">
+        <f>'HIGH-SFC'!B189</f>
+        <v/>
+      </c>
+      <c r="D51">
         <f>IFERROR(ROUND((C51 - B51) / ABS(B51) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F51">
-        <f>IFERROR(ROUND((D51 - B51) / ABS(B51) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G51">
-        <f>IFERROR(ROUND((D51 - C51) / ABS(C51) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>AVG Hop Latency (nanoseconds)</t>
+          <t>Standard Deviation of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B52">
-        <f>'HIGH-NO,SFC'!B180</f>
+        <f>'HIGH-NO,SFC'!B190</f>
         <v/>
       </c>
       <c r="C52">
-        <f>'HIGH-SFC'!B180</f>
-        <v/>
-      </c>
-      <c r="E52">
+        <f>'HIGH-SFC'!B190</f>
+        <v/>
+      </c>
+      <c r="D52">
         <f>IFERROR(ROUND((C52 - B52) / ABS(B52) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F52">
-        <f>IFERROR(ROUND((D52 - B52) / ABS(B52) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G52">
-        <f>IFERROR(ROUND((D52 - C52) / ABS(C52) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>STD Hop Latency (nanoseconds)</t>
+          <t>AVG of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B53">
-        <f>'HIGH-NO,SFC'!B181</f>
+        <f>'HIGH-NO,SFC'!C189</f>
         <v/>
       </c>
       <c r="C53">
-        <f>'HIGH-SFC'!B181</f>
-        <v/>
-      </c>
-      <c r="E53">
+        <f>'HIGH-SFC'!C189</f>
+        <v/>
+      </c>
+      <c r="D53">
         <f>IFERROR(ROUND((C53 - B53) / ABS(B53) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F53">
-        <f>IFERROR(ROUND((D53 - B53) / ABS(B53) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G53">
-        <f>IFERROR(ROUND((D53 - C53) / ABS(C53) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>AVG of packets to each switch (%)</t>
+          <t>Standard Deviation of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B54">
-        <f>'HIGH-NO,SFC'!B189</f>
+        <f>'HIGH-NO,SFC'!C190</f>
         <v/>
       </c>
       <c r="C54">
-        <f>'HIGH-SFC'!B189</f>
-        <v/>
-      </c>
-      <c r="E54">
+        <f>'HIGH-SFC'!C190</f>
+        <v/>
+      </c>
+      <c r="D54">
         <f>IFERROR(ROUND((C54 - B54) / ABS(B54) * 100, 2), 0)</f>
         <v/>
       </c>
-      <c r="F54">
-        <f>IFERROR(ROUND((D54 - B54) / ABS(B54) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G54">
-        <f>IFERROR(ROUND((D54 - C54) / ABS(C54) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation of packets to each switch (%)</t>
-        </is>
-      </c>
-      <c r="B55">
-        <f>'HIGH-NO,SFC'!B190</f>
-        <v/>
-      </c>
-      <c r="C55">
-        <f>'HIGH-SFC'!B190</f>
-        <v/>
-      </c>
-      <c r="E55">
-        <f>IFERROR(ROUND((C55 - B55) / ABS(B55) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F55">
-        <f>IFERROR(ROUND((D55 - B55) / ABS(B55) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G55">
-        <f>IFERROR(ROUND((D55 - C55) / ABS(C55) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
+    </row>
+    <row r="55"/>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>AVG of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B56">
-        <f>'HIGH-NO,SFC'!C189</f>
-        <v/>
-      </c>
-      <c r="C56">
-        <f>'HIGH-SFC'!C189</f>
-        <v/>
-      </c>
-      <c r="E56">
-        <f>IFERROR(ROUND((C56 - B56) / ABS(B56) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F56">
-        <f>IFERROR(ROUND((D56 - B56) / ABS(B56) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G56">
-        <f>IFERROR(ROUND((D56 - C56) / ABS(C56) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B57">
-        <f>'HIGH-NO,SFC'!C190</f>
-        <v/>
-      </c>
-      <c r="C57">
-        <f>'HIGH-SFC'!C190</f>
-        <v/>
-      </c>
-      <c r="E57">
-        <f>IFERROR(ROUND((C57 - B57) / ABS(B57) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F57">
-        <f>IFERROR(ROUND((D57 - B57) / ABS(B57) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G57">
-        <f>IFERROR(ROUND((D57 - C57) / ABS(C57) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="58"/>
+          <t>DSCP: 10</t>
+        </is>
+      </c>
+    </row>
+    <row r="57"/>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>AVG Out of Order Packets (Nº)</t>
+        </is>
+      </c>
+      <c r="B58">
+        <f>'HIGH-NO,SFC'!B195</f>
+        <v/>
+      </c>
+      <c r="C58">
+        <f>'HIGH-SFC'!B195</f>
+        <v/>
+      </c>
+      <c r="D58">
+        <f>IFERROR(ROUND((C58 - B58) / ABS(B58) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>DSCP: 10</t>
-        </is>
-      </c>
-    </row>
-    <row r="60"/>
+          <t>AVG Packet Loss (Nº)</t>
+        </is>
+      </c>
+      <c r="B59">
+        <f>'HIGH-NO,SFC'!B196</f>
+        <v/>
+      </c>
+      <c r="C59">
+        <f>'HIGH-SFC'!B196</f>
+        <v/>
+      </c>
+      <c r="D59">
+        <f>IFERROR(ROUND((C59 - B59) / ABS(B59) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="inlineStr">
+        <is>
+          <t>AVG Packet Loss (%)</t>
+        </is>
+      </c>
+      <c r="B60">
+        <f>'HIGH-NO,SFC'!B197</f>
+        <v/>
+      </c>
+      <c r="C60">
+        <f>'HIGH-SFC'!B197</f>
+        <v/>
+      </c>
+      <c r="D60">
+        <f>IFERROR(ROUND((C60 - B60) / ABS(B60) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>AVG Out of Order Packets (Nº)</t>
+          <t>AVG 1º Packet Delay (nanoseconds)</t>
         </is>
       </c>
       <c r="B61">
-        <f>'HIGH-NO,SFC'!B195</f>
+        <f>'HIGH-NO,SFC'!B198</f>
         <v/>
       </c>
       <c r="C61">
-        <f>'HIGH-SFC'!B195</f>
-        <v/>
-      </c>
-      <c r="E61">
+        <f>'HIGH-SFC'!B198</f>
+        <v/>
+      </c>
+      <c r="D61">
         <f>IFERROR(ROUND((C61 - B61) / ABS(B61) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F61">
-        <f>IFERROR(ROUND((D61 - B61) / ABS(B61) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G61">
-        <f>IFERROR(ROUND((D61 - C61) / ABS(C61) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (Nº)</t>
+          <t>AVG Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B62">
-        <f>'HIGH-NO,SFC'!B196</f>
+        <f>'HIGH-NO,SFC'!B199</f>
         <v/>
       </c>
       <c r="C62">
-        <f>'HIGH-SFC'!B196</f>
-        <v/>
-      </c>
-      <c r="E62">
+        <f>'HIGH-SFC'!B199</f>
+        <v/>
+      </c>
+      <c r="D62">
         <f>IFERROR(ROUND((C62 - B62) / ABS(B62) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F62">
-        <f>IFERROR(ROUND((D62 - B62) / ABS(B62) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G62">
-        <f>IFERROR(ROUND((D62 - C62) / ABS(C62) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (%)</t>
+          <t>STD Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B63">
-        <f>'HIGH-NO,SFC'!B197</f>
+        <f>'HIGH-NO,SFC'!B200</f>
         <v/>
       </c>
       <c r="C63">
-        <f>'HIGH-SFC'!B197</f>
-        <v/>
-      </c>
-      <c r="E63">
+        <f>'HIGH-SFC'!B200</f>
+        <v/>
+      </c>
+      <c r="D63">
         <f>IFERROR(ROUND((C63 - B63) / ABS(B63) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F63">
-        <f>IFERROR(ROUND((D63 - B63) / ABS(B63) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G63">
-        <f>IFERROR(ROUND((D63 - C63) / ABS(C63) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>AVG 1º Packet Delay (nanoseconds)</t>
+          <t>AVG Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B64">
-        <f>'HIGH-NO,SFC'!B198</f>
+        <f>'HIGH-NO,SFC'!B201</f>
         <v/>
       </c>
       <c r="C64">
-        <f>'HIGH-SFC'!B198</f>
-        <v/>
-      </c>
-      <c r="E64">
+        <f>'HIGH-SFC'!B201</f>
+        <v/>
+      </c>
+      <c r="D64">
         <f>IFERROR(ROUND((C64 - B64) / ABS(B64) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F64">
-        <f>IFERROR(ROUND((D64 - B64) / ABS(B64) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G64">
-        <f>IFERROR(ROUND((D64 - C64) / ABS(C64) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>AVG Flow Jitter (nanoseconds)</t>
+          <t>STD Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B65">
-        <f>'HIGH-NO,SFC'!B199</f>
+        <f>'HIGH-NO,SFC'!B202</f>
         <v/>
       </c>
       <c r="C65">
-        <f>'HIGH-SFC'!B199</f>
-        <v/>
-      </c>
-      <c r="E65">
+        <f>'HIGH-SFC'!B202</f>
+        <v/>
+      </c>
+      <c r="D65">
         <f>IFERROR(ROUND((C65 - B65) / ABS(B65) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F65">
-        <f>IFERROR(ROUND((D65 - B65) / ABS(B65) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G65">
-        <f>IFERROR(ROUND((D65 - C65) / ABS(C65) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>STD Flow Jitter (nanoseconds)</t>
+          <t>AVG Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B66">
-        <f>'HIGH-NO,SFC'!B200</f>
+        <f>'HIGH-NO,SFC'!B203</f>
         <v/>
       </c>
       <c r="C66">
-        <f>'HIGH-SFC'!B200</f>
-        <v/>
-      </c>
-      <c r="E66">
+        <f>'HIGH-SFC'!B203</f>
+        <v/>
+      </c>
+      <c r="D66">
         <f>IFERROR(ROUND((C66 - B66) / ABS(B66) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F66">
-        <f>IFERROR(ROUND((D66 - B66) / ABS(B66) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G66">
-        <f>IFERROR(ROUND((D66 - C66) / ABS(C66) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>AVG Flows Latency (nanoseconds)</t>
+          <t>STD Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B67">
-        <f>'HIGH-NO,SFC'!B201</f>
+        <f>'HIGH-NO,SFC'!B204</f>
         <v/>
       </c>
       <c r="C67">
-        <f>'HIGH-SFC'!B201</f>
-        <v/>
-      </c>
-      <c r="E67">
+        <f>'HIGH-SFC'!B204</f>
+        <v/>
+      </c>
+      <c r="D67">
         <f>IFERROR(ROUND((C67 - B67) / ABS(B67) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F67">
-        <f>IFERROR(ROUND((D67 - B67) / ABS(B67) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G67">
-        <f>IFERROR(ROUND((D67 - C67) / ABS(C67) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>STD Flows Latency (nanoseconds)</t>
+          <t>AVG of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B68">
-        <f>'HIGH-NO,SFC'!B202</f>
+        <f>'HIGH-NO,SFC'!B212</f>
         <v/>
       </c>
       <c r="C68">
-        <f>'HIGH-SFC'!B202</f>
-        <v/>
-      </c>
-      <c r="E68">
+        <f>'HIGH-SFC'!B212</f>
+        <v/>
+      </c>
+      <c r="D68">
         <f>IFERROR(ROUND((C68 - B68) / ABS(B68) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F68">
-        <f>IFERROR(ROUND((D68 - B68) / ABS(B68) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G68">
-        <f>IFERROR(ROUND((D68 - C68) / ABS(C68) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>AVG Hop Latency (nanoseconds)</t>
+          <t>Standard Deviation of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B69">
-        <f>'HIGH-NO,SFC'!B203</f>
+        <f>'HIGH-NO,SFC'!B213</f>
         <v/>
       </c>
       <c r="C69">
-        <f>'HIGH-SFC'!B203</f>
-        <v/>
-      </c>
-      <c r="E69">
+        <f>'HIGH-SFC'!B213</f>
+        <v/>
+      </c>
+      <c r="D69">
         <f>IFERROR(ROUND((C69 - B69) / ABS(B69) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F69">
-        <f>IFERROR(ROUND((D69 - B69) / ABS(B69) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G69">
-        <f>IFERROR(ROUND((D69 - C69) / ABS(C69) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>STD Hop Latency (nanoseconds)</t>
+          <t>AVG of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B70">
-        <f>'HIGH-NO,SFC'!B204</f>
+        <f>'HIGH-NO,SFC'!C212</f>
         <v/>
       </c>
       <c r="C70">
-        <f>'HIGH-SFC'!B204</f>
-        <v/>
-      </c>
-      <c r="E70">
+        <f>'HIGH-SFC'!C212</f>
+        <v/>
+      </c>
+      <c r="D70">
         <f>IFERROR(ROUND((C70 - B70) / ABS(B70) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F70">
-        <f>IFERROR(ROUND((D70 - B70) / ABS(B70) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G70">
-        <f>IFERROR(ROUND((D70 - C70) / ABS(C70) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>AVG of packets to each switch (%)</t>
+          <t>Standard Deviation of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B71">
-        <f>'HIGH-NO,SFC'!B212</f>
+        <f>'HIGH-NO,SFC'!C213</f>
         <v/>
       </c>
       <c r="C71">
-        <f>'HIGH-SFC'!B212</f>
-        <v/>
-      </c>
-      <c r="E71">
+        <f>'HIGH-SFC'!C213</f>
+        <v/>
+      </c>
+      <c r="D71">
         <f>IFERROR(ROUND((C71 - B71) / ABS(B71) * 100, 2), 0)</f>
         <v/>
       </c>
-      <c r="F71">
-        <f>IFERROR(ROUND((D71 - B71) / ABS(B71) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G71">
-        <f>IFERROR(ROUND((D71 - C71) / ABS(C71) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation of packets to each switch (%)</t>
-        </is>
-      </c>
-      <c r="B72">
-        <f>'HIGH-NO,SFC'!B213</f>
-        <v/>
-      </c>
-      <c r="C72">
-        <f>'HIGH-SFC'!B213</f>
-        <v/>
-      </c>
-      <c r="E72">
-        <f>IFERROR(ROUND((C72 - B72) / ABS(B72) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F72">
-        <f>IFERROR(ROUND((D72 - B72) / ABS(B72) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G72">
-        <f>IFERROR(ROUND((D72 - C72) / ABS(C72) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
+    </row>
+    <row r="72"/>
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>AVG of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B73">
-        <f>'HIGH-NO,SFC'!C212</f>
-        <v/>
-      </c>
-      <c r="C73">
-        <f>'HIGH-SFC'!C212</f>
-        <v/>
-      </c>
-      <c r="E73">
-        <f>IFERROR(ROUND((C73 - B73) / ABS(B73) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F73">
-        <f>IFERROR(ROUND((D73 - B73) / ABS(B73) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G73">
-        <f>IFERROR(ROUND((D73 - C73) / ABS(C73) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B74">
-        <f>'HIGH-NO,SFC'!C213</f>
-        <v/>
-      </c>
-      <c r="C74">
-        <f>'HIGH-SFC'!C213</f>
-        <v/>
-      </c>
-      <c r="E74">
-        <f>IFERROR(ROUND((C74 - B74) / ABS(B74) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F74">
-        <f>IFERROR(ROUND((D74 - B74) / ABS(B74) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G74">
-        <f>IFERROR(ROUND((D74 - C74) / ABS(C74) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="75"/>
+          <t>DSCP: 51</t>
+        </is>
+      </c>
+    </row>
+    <row r="74"/>
+    <row r="75">
+      <c r="A75" s="1" t="inlineStr">
+        <is>
+          <t>AVG Out of Order Packets (Nº)</t>
+        </is>
+      </c>
+      <c r="B75">
+        <f>'HIGH-NO,SFC'!B218</f>
+        <v/>
+      </c>
+      <c r="C75">
+        <f>'HIGH-SFC'!B218</f>
+        <v/>
+      </c>
+      <c r="D75">
+        <f>IFERROR(ROUND((C75 - B75) / ABS(B75) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>DSCP: 51</t>
-        </is>
-      </c>
-    </row>
-    <row r="77"/>
+          <t>AVG Packet Loss (Nº)</t>
+        </is>
+      </c>
+      <c r="B76">
+        <f>'HIGH-NO,SFC'!B219</f>
+        <v/>
+      </c>
+      <c r="C76">
+        <f>'HIGH-SFC'!B219</f>
+        <v/>
+      </c>
+      <c r="D76">
+        <f>IFERROR(ROUND((C76 - B76) / ABS(B76) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="inlineStr">
+        <is>
+          <t>AVG Packet Loss (%)</t>
+        </is>
+      </c>
+      <c r="B77">
+        <f>'HIGH-NO,SFC'!B220</f>
+        <v/>
+      </c>
+      <c r="C77">
+        <f>'HIGH-SFC'!B220</f>
+        <v/>
+      </c>
+      <c r="D77">
+        <f>IFERROR(ROUND((C77 - B77) / ABS(B77) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>AVG Out of Order Packets (Nº)</t>
+          <t>AVG 1º Packet Delay (nanoseconds)</t>
         </is>
       </c>
       <c r="B78">
-        <f>'HIGH-NO,SFC'!B218</f>
+        <f>'HIGH-NO,SFC'!B221</f>
         <v/>
       </c>
       <c r="C78">
-        <f>'HIGH-SFC'!B218</f>
-        <v/>
-      </c>
-      <c r="E78">
+        <f>'HIGH-SFC'!B221</f>
+        <v/>
+      </c>
+      <c r="D78">
         <f>IFERROR(ROUND((C78 - B78) / ABS(B78) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F78">
-        <f>IFERROR(ROUND((D78 - B78) / ABS(B78) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G78">
-        <f>IFERROR(ROUND((D78 - C78) / ABS(C78) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (Nº)</t>
+          <t>AVG Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B79">
-        <f>'HIGH-NO,SFC'!B219</f>
+        <f>'HIGH-NO,SFC'!B222</f>
         <v/>
       </c>
       <c r="C79">
-        <f>'HIGH-SFC'!B219</f>
-        <v/>
-      </c>
-      <c r="E79">
+        <f>'HIGH-SFC'!B222</f>
+        <v/>
+      </c>
+      <c r="D79">
         <f>IFERROR(ROUND((C79 - B79) / ABS(B79) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F79">
-        <f>IFERROR(ROUND((D79 - B79) / ABS(B79) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G79">
-        <f>IFERROR(ROUND((D79 - C79) / ABS(C79) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="inlineStr">
         <is>
-          <t>AVG Packet Loss (%)</t>
+          <t>STD Flow Jitter (nanoseconds)</t>
         </is>
       </c>
       <c r="B80">
-        <f>'HIGH-NO,SFC'!B220</f>
+        <f>'HIGH-NO,SFC'!B223</f>
         <v/>
       </c>
       <c r="C80">
-        <f>'HIGH-SFC'!B220</f>
-        <v/>
-      </c>
-      <c r="E80">
+        <f>'HIGH-SFC'!B223</f>
+        <v/>
+      </c>
+      <c r="D80">
         <f>IFERROR(ROUND((C80 - B80) / ABS(B80) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F80">
-        <f>IFERROR(ROUND((D80 - B80) / ABS(B80) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G80">
-        <f>IFERROR(ROUND((D80 - C80) / ABS(C80) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="inlineStr">
         <is>
-          <t>AVG 1º Packet Delay (nanoseconds)</t>
+          <t>AVG Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B81">
-        <f>'HIGH-NO,SFC'!B221</f>
+        <f>'HIGH-NO,SFC'!B224</f>
         <v/>
       </c>
       <c r="C81">
-        <f>'HIGH-SFC'!B221</f>
-        <v/>
-      </c>
-      <c r="E81">
+        <f>'HIGH-SFC'!B224</f>
+        <v/>
+      </c>
+      <c r="D81">
         <f>IFERROR(ROUND((C81 - B81) / ABS(B81) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F81">
-        <f>IFERROR(ROUND((D81 - B81) / ABS(B81) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G81">
-        <f>IFERROR(ROUND((D81 - C81) / ABS(C81) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="inlineStr">
         <is>
-          <t>AVG Flow Jitter (nanoseconds)</t>
+          <t>STD Flows Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B82">
-        <f>'HIGH-NO,SFC'!B222</f>
+        <f>'HIGH-NO,SFC'!B225</f>
         <v/>
       </c>
       <c r="C82">
-        <f>'HIGH-SFC'!B222</f>
-        <v/>
-      </c>
-      <c r="E82">
+        <f>'HIGH-SFC'!B225</f>
+        <v/>
+      </c>
+      <c r="D82">
         <f>IFERROR(ROUND((C82 - B82) / ABS(B82) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F82">
-        <f>IFERROR(ROUND((D82 - B82) / ABS(B82) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G82">
-        <f>IFERROR(ROUND((D82 - C82) / ABS(C82) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="1" t="inlineStr">
         <is>
-          <t>STD Flow Jitter (nanoseconds)</t>
+          <t>AVG Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B83">
-        <f>'HIGH-NO,SFC'!B223</f>
+        <f>'HIGH-NO,SFC'!B226</f>
         <v/>
       </c>
       <c r="C83">
-        <f>'HIGH-SFC'!B223</f>
-        <v/>
-      </c>
-      <c r="E83">
+        <f>'HIGH-SFC'!B226</f>
+        <v/>
+      </c>
+      <c r="D83">
         <f>IFERROR(ROUND((C83 - B83) / ABS(B83) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F83">
-        <f>IFERROR(ROUND((D83 - B83) / ABS(B83) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G83">
-        <f>IFERROR(ROUND((D83 - C83) / ABS(C83) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="1" t="inlineStr">
         <is>
-          <t>AVG Flows Latency (nanoseconds)</t>
+          <t>STD Hop Latency (nanoseconds)</t>
         </is>
       </c>
       <c r="B84">
-        <f>'HIGH-NO,SFC'!B224</f>
+        <f>'HIGH-NO,SFC'!B227</f>
         <v/>
       </c>
       <c r="C84">
-        <f>'HIGH-SFC'!B224</f>
-        <v/>
-      </c>
-      <c r="E84">
+        <f>'HIGH-SFC'!B227</f>
+        <v/>
+      </c>
+      <c r="D84">
         <f>IFERROR(ROUND((C84 - B84) / ABS(B84) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F84">
-        <f>IFERROR(ROUND((D84 - B84) / ABS(B84) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G84">
-        <f>IFERROR(ROUND((D84 - C84) / ABS(C84) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="1" t="inlineStr">
         <is>
-          <t>STD Flows Latency (nanoseconds)</t>
+          <t>AVG of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B85">
-        <f>'HIGH-NO,SFC'!B225</f>
+        <f>'HIGH-NO,SFC'!B235</f>
         <v/>
       </c>
       <c r="C85">
-        <f>'HIGH-SFC'!B225</f>
-        <v/>
-      </c>
-      <c r="E85">
+        <f>'HIGH-SFC'!B235</f>
+        <v/>
+      </c>
+      <c r="D85">
         <f>IFERROR(ROUND((C85 - B85) / ABS(B85) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F85">
-        <f>IFERROR(ROUND((D85 - B85) / ABS(B85) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G85">
-        <f>IFERROR(ROUND((D85 - C85) / ABS(C85) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="1" t="inlineStr">
         <is>
-          <t>AVG Hop Latency (nanoseconds)</t>
+          <t>Standard Deviation of packets to each switch (%)</t>
         </is>
       </c>
       <c r="B86">
-        <f>'HIGH-NO,SFC'!B226</f>
+        <f>'HIGH-NO,SFC'!B236</f>
         <v/>
       </c>
       <c r="C86">
-        <f>'HIGH-SFC'!B226</f>
-        <v/>
-      </c>
-      <c r="E86">
+        <f>'HIGH-SFC'!B236</f>
+        <v/>
+      </c>
+      <c r="D86">
         <f>IFERROR(ROUND((C86 - B86) / ABS(B86) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F86">
-        <f>IFERROR(ROUND((D86 - B86) / ABS(B86) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G86">
-        <f>IFERROR(ROUND((D86 - C86) / ABS(C86) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="1" t="inlineStr">
         <is>
-          <t>STD Hop Latency (nanoseconds)</t>
+          <t>AVG of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B87">
-        <f>'HIGH-NO,SFC'!B227</f>
+        <f>'HIGH-NO,SFC'!C235</f>
         <v/>
       </c>
       <c r="C87">
-        <f>'HIGH-SFC'!B227</f>
-        <v/>
-      </c>
-      <c r="E87">
+        <f>'HIGH-SFC'!C235</f>
+        <v/>
+      </c>
+      <c r="D87">
         <f>IFERROR(ROUND((C87 - B87) / ABS(B87) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F87">
-        <f>IFERROR(ROUND((D87 - B87) / ABS(B87) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G87">
-        <f>IFERROR(ROUND((D87 - C87) / ABS(C87) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="inlineStr">
         <is>
-          <t>AVG of packets to each switch (%)</t>
+          <t>Standard Deviation of processed Bytes to each switch</t>
         </is>
       </c>
       <c r="B88">
-        <f>'HIGH-NO,SFC'!B235</f>
+        <f>'HIGH-NO,SFC'!C236</f>
         <v/>
       </c>
       <c r="C88">
-        <f>'HIGH-SFC'!B235</f>
-        <v/>
-      </c>
-      <c r="E88">
+        <f>'HIGH-SFC'!C236</f>
+        <v/>
+      </c>
+      <c r="D88">
         <f>IFERROR(ROUND((C88 - B88) / ABS(B88) * 100, 2), 0)</f>
         <v/>
       </c>
-      <c r="F88">
-        <f>IFERROR(ROUND((D88 - B88) / ABS(B88) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G88">
-        <f>IFERROR(ROUND((D88 - C88) / ABS(C88) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="inlineStr">
-        <is>
-          <t>Standard Deviation of packets to each switch (%)</t>
-        </is>
-      </c>
-      <c r="B89">
-        <f>'HIGH-NO,SFC'!B236</f>
-        <v/>
-      </c>
-      <c r="C89">
-        <f>'HIGH-SFC'!B236</f>
-        <v/>
-      </c>
-      <c r="E89">
-        <f>IFERROR(ROUND((C89 - B89) / ABS(B89) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F89">
-        <f>IFERROR(ROUND((D89 - B89) / ABS(B89) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G89">
-        <f>IFERROR(ROUND((D89 - C89) / ABS(C89) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="inlineStr">
-        <is>
-          <t>AVG of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B90">
-        <f>'HIGH-NO,SFC'!C235</f>
-        <v/>
-      </c>
-      <c r="C90">
-        <f>'HIGH-SFC'!C235</f>
-        <v/>
-      </c>
-      <c r="E90">
-        <f>IFERROR(ROUND((C90 - B90) / ABS(B90) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F90">
-        <f>IFERROR(ROUND((D90 - B90) / ABS(B90) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G90">
-        <f>IFERROR(ROUND((D90 - C90) / ABS(C90) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
+    </row>
+    <row r="89"/>
+    <row r="90"/>
     <row r="91">
       <c r="A91" s="1" t="inlineStr">
         <is>
-          <t>Standard Deviation of processed Bytes to each switch</t>
-        </is>
-      </c>
-      <c r="B91">
-        <f>'HIGH-NO,SFC'!C236</f>
-        <v/>
-      </c>
-      <c r="C91">
-        <f>'HIGH-SFC'!C236</f>
-        <v/>
-      </c>
-      <c r="E91">
-        <f>IFERROR(ROUND((C91 - B91) / ABS(B91) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F91">
-        <f>IFERROR(ROUND((D91 - B91) / ABS(B91) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G91">
-        <f>IFERROR(ROUND((D91 - C91) / ABS(C91) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="92"/>
-    <row r="93"/>
-    <row r="94">
-      <c r="A94" s="1" t="inlineStr">
-        <is>
           <t>For All Data Flows</t>
         </is>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="inlineStr">
+    <row r="92">
+      <c r="A92" s="1" t="inlineStr">
         <is>
           <t>Variation of the AVG 1º Packet Delay between (No)Emergency Flows (%)</t>
         </is>
       </c>
-      <c r="B95">
+      <c r="B92">
         <f>'HIGH-NO,SFC'!D243</f>
         <v/>
       </c>
-      <c r="C95">
+      <c r="C92">
         <f>'HIGH-SFC'!D243</f>
         <v/>
       </c>
-      <c r="E95">
-        <f>IFERROR(ROUND((C95 - B95) / ABS(B95) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F95">
-        <f>IFERROR(ROUND((D95 - B95) / ABS(B95) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G95">
-        <f>IFERROR(ROUND((D95 - C95) / ABS(C95) * 100, 2), 0)</f>
-        <v/>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="inlineStr">
+      <c r="D92">
+        <f>IFERROR(ROUND((C92 - B92) / ABS(B92) * 100, 2), 0)</f>
+        <v/>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="inlineStr">
         <is>
           <t>Variation of the AVG Flow Delay between (No)Emergency Flows (%)</t>
         </is>
       </c>
-      <c r="B96">
+      <c r="B93">
         <f>'HIGH-NO,SFC'!D244</f>
         <v/>
       </c>
-      <c r="C96">
+      <c r="C93">
         <f>'HIGH-SFC'!D244</f>
         <v/>
       </c>
-      <c r="E96">
-        <f>IFERROR(ROUND((C96 - B96) / ABS(B96) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="F96">
-        <f>IFERROR(ROUND((D96 - B96) / ABS(B96) * 100, 2), 0)</f>
-        <v/>
-      </c>
-      <c r="G96">
-        <f>IFERROR(ROUND((D96 - C96) / ABS(C96) * 100, 2), 0)</f>
+      <c r="D93">
+        <f>IFERROR(ROUND((C93 - B93) / ABS(B93) * 100, 2), 0)</f>
         <v/>
       </c>
     </row>
